--- a/Salario.xlsx
+++ b/Salario.xlsx
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R$ 1234,00</t>
+          <t>R$ 1233,00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>21,90%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>45,38%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>68,88%</t>
+          <t>68,94%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>115,88%</t>
+          <t>115,98%</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>139,38%</t>
+          <t>139,50%</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>46,23%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>69,69%</t>
+          <t>69,75%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>116,69%</t>
+          <t>116,79%</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -645,14 +645,14 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>140,19%</t>
+          <t>140,31%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R$ 617,00</t>
+          <t>R$ 616,00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23,50%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>47,00%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>70,50%</t>
+          <t>70,56%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>94,00%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>117,50%</t>
+          <t>117,60%</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>141,00%</t>
+          <t>141,12%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>47,81%</t>
+          <t>47,85%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>71,31%</t>
+          <t>71,37%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>118,31%</t>
+          <t>118,41%</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>141,82%</t>
+          <t>141,93%</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>25,14%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>48,62%</t>
+          <t>48,66%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>72,12%</t>
+          <t>72,18%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>95,70%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>119,12%</t>
+          <t>119,22%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>142,63%</t>
+          <t>142,74%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>25,95%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>49,43%</t>
+          <t>49,47%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>72,99%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>119,94%</t>
+          <t>120,03%</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>143,44%</t>
+          <t>143,55%</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>50,24%</t>
+          <t>50,28%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>73,80%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>97,24%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>120,75%</t>
+          <t>120,84%</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>144,25%</t>
+          <t>144,36%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>51,05%</t>
+          <t>51,09%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>74,55%</t>
+          <t>74,61%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>121,56%</t>
+          <t>121,65%</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>145,06%</t>
+          <t>145,17%</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>51,86%</t>
+          <t>51,91%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>75,36%</t>
+          <t>75,43%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>122,37%</t>
+          <t>122,47%</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>145,87%</t>
+          <t>145,99%</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>29,20%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>52,67%</t>
+          <t>52,72%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>76,18%</t>
+          <t>76,24%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>123,18%</t>
+          <t>123,28%</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>146,68%</t>
+          <t>146,80%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>53,48%</t>
+          <t>53,53%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>76,99%</t>
+          <t>77,05%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>100,49%</t>
+          <t>100,57%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>123,99%</t>
+          <t>124,09%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>147,49%</t>
+          <t>147,61%</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,30%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>30,82%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>54,29%</t>
+          <t>54,34%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>77,80%</t>
+          <t>77,86%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>101,30%</t>
+          <t>101,38%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>124,80%</t>
+          <t>124,90%</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>148,30%</t>
+          <t>148,42%</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8,10%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31,60%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>55,11%</t>
+          <t>55,15%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>78,61%</t>
+          <t>78,67%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>102,11%</t>
+          <t>102,19%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>125,61%</t>
+          <t>125,71%</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>149,11%</t>
+          <t>149,23%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>55,96%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>79,42%</t>
+          <t>79,48%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>102,92%</t>
+          <t>103,00%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>126,42%</t>
+          <t>126,52%</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>149,92%</t>
+          <t>150,04%</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>56,73%</t>
+          <t>56,77%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>80,23%</t>
+          <t>80,29%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>103,73%</t>
+          <t>103,81%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>127,23%</t>
+          <t>127,33%</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>150,73%</t>
+          <t>150,85%</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>57,54%</t>
+          <t>57,58%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>81,04%</t>
+          <t>81,10%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>104,54%</t>
+          <t>104,62%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>128,04%</t>
+          <t>128,14%</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>151,54%</t>
+          <t>151,66%</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>58,35%</t>
+          <t>58,39%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>81,85%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>105,35%</t>
+          <t>105,43%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>128,85%</t>
+          <t>128,95%</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>152,35%</t>
+          <t>152,47%</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>59,16%</t>
+          <t>59,21%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>82,73%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>106,16%</t>
+          <t>106,24%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>129,66%</t>
+          <t>129,76%</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>153,16%</t>
+          <t>153,28%</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>36,50%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>59,97%</t>
+          <t>60,02%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>83,47%</t>
+          <t>83,54%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>106,97%</t>
+          <t>107,06%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>130,47%</t>
+          <t>130,58%</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>153,97%</t>
+          <t>154,10%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>60,78%</t>
+          <t>60,83%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>84,28%</t>
+          <t>84,35%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>107,78%</t>
+          <t>107,87%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>131,28%</t>
+          <t>131,39%</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>154,78%</t>
+          <t>154,91%</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>14,60%</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>38,12%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>61,59%</t>
+          <t>61,64%</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>85,09%</t>
+          <t>85,16%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>108,59%</t>
+          <t>108,68%</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>132,09%</t>
+          <t>132,20%</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>155,59%</t>
+          <t>155,72%</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15,40%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>38,90%</t>
+          <t>38,93%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>62,40%</t>
+          <t>62,45%</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>85,90%</t>
+          <t>85,97%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>109,40%</t>
+          <t>109,49%</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>132,90%</t>
+          <t>133,01%</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>156,40%</t>
+          <t>156,53%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>39,74%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>63,21%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>86,71%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>110,21%</t>
+          <t>110,30%</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>133,71%</t>
+          <t>133,82%</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>157,21%</t>
+          <t>157,34%</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>40,55%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>64,02%</t>
+          <t>64,07%</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>87,59%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>111,02%</t>
+          <t>111,11%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>134,52%</t>
+          <t>134,63%</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>158,02%</t>
+          <t>158,15%</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>41,33%</t>
+          <t>41,36%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>64,83%</t>
+          <t>64,88%</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>88,40%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>111,83%</t>
+          <t>111,92%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>135,33%</t>
+          <t>135,44%</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>158,83%</t>
+          <t>158,96%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>42,14%</t>
+          <t>42,17%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>65,64%</t>
+          <t>65,69%</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>89,21%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>112,64%</t>
+          <t>112,73%</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>136,14%</t>
+          <t>136,25%</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>159,64%</t>
+          <t>159,77%</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>42,98%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>66,45%</t>
+          <t>66,50%</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>90,02%</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>113,45%</t>
+          <t>113,54%</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>136,95%</t>
+          <t>137,06%</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>160,45%</t>
+          <t>160,58%</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>43,76%</t>
+          <t>43,80%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>67,26%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>114,26%</t>
+          <t>114,36%</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>137,76%</t>
+          <t>137,88%</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>161,26%</t>
+          <t>161,39%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>44,57%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>68,07%</t>
+          <t>68,13%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>91,65%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>115,07%</t>
+          <t>115,17%</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>138,57%</t>
+          <t>138,69%</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>162,07%</t>
+          <t>162,21%</t>
         </is>
       </c>
     </row>
